--- a/employee.xlsx
+++ b/employee.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t xml:space="preserve">emp_id</t>
   </si>
@@ -156,6 +156,12 @@
     <t xml:space="preserve">Colmenares</t>
   </si>
   <si>
+    <t xml:space="preserve">Eleni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zlotkey</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matthew</t>
   </si>
   <si>
@@ -304,12 +310,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cambrault</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eleni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zlotkey</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -885,6 +885,23 @@
       </c>
       <c r="E21" s="0" t="n">
         <v>15004</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>39476</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>35004</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -904,13 +921,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.71"/>
@@ -918,7 +935,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -930,6 +947,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -937,13 +957,16 @@
         <v>120</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>38186</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>25000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -951,55 +974,67 @@
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>38452</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>37742</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>38635</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>39402</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>25001</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1007,44 +1042,53 @@
         <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>38549</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="0" t="n">
+        <v>35001</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>38988</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="n">
+        <v>50001</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>39096</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="n">
+        <v>15001</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>128</v>
       </c>
@@ -1052,150 +1096,183 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>39515</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="0" t="n">
+        <v>25002</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>129</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>38584</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="0" t="n">
+        <v>35002</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>130</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>38655</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="0" t="n">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>131</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>38399</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="0" t="n">
+        <v>15002</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>132</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D14" s="3" t="n">
         <v>39182</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="0" t="n">
+        <v>25003</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>133</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" s="3" t="n">
         <v>38152</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="0" t="n">
+        <v>35003</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>134</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D16" s="3" t="n">
         <v>38955</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="0" t="n">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>135</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>39428</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="0" t="n">
+        <v>15003</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>39484</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="0" t="n">
+        <v>25004</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>137</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>37816</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="30.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="0" t="n">
+        <v>35004</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>138</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>38651</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>50004</v>
       </c>
     </row>
   </sheetData>
@@ -1214,19 +1291,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,64 +1316,79 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>37911</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E2" s="0" t="n">
+        <v>35002</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="n">
         <v>38381</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E3" s="0" t="n">
+        <v>50002</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="3" t="n">
         <v>38791</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="n">
+        <v>15002</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>144</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D5" s="3" t="n">
         <v>38907</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0" t="n">
+        <v>25003</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>145</v>
       </c>
@@ -1304,13 +1396,16 @@
         <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>38261</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="0" t="n">
+        <v>35003</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>146</v>
       </c>
@@ -1318,52 +1413,64 @@
         <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>38357</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="0" t="n">
+        <v>50003</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>147</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>38421</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0" t="n">
+        <v>15003</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>148</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>39370</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="0" t="n">
+        <v>25004</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>149</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>39476</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>35004</v>
       </c>
     </row>
   </sheetData>
